--- a/Documents/Testdata/partnerdataset.xlsx
+++ b/Documents/Testdata/partnerdataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Volledige naam:</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Kevin Ross</t>
   </si>
   <si>
-    <t xml:space="preserve">Renata Versluis </t>
-  </si>
-  <si>
     <t>Clinton Gavey</t>
   </si>
   <si>
@@ -202,13 +199,68 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renata van der Heijden
+</t>
+  </si>
+  <si>
+    <t>Achternaam:</t>
+  </si>
+  <si>
+    <t>Roepnaam:</t>
+  </si>
+  <si>
+    <t>Miley</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Tussenvoegsel:</t>
+  </si>
+  <si>
+    <t>van der</t>
+  </si>
+  <si>
+    <t>Heijden</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Gavey</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Timmers</t>
+  </si>
+  <si>
+    <t>Annemarijn</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>Helvert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +394,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -685,9 +743,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1077,358 +1142,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" s="1">
+        <v>999999928</v>
+      </c>
+      <c r="C5" s="1">
+        <v>999999886</v>
+      </c>
+      <c r="D5" s="1">
+        <v>999999230</v>
+      </c>
+      <c r="E5" s="1">
+        <v>999997865</v>
+      </c>
+      <c r="F5" s="1">
+        <v>999999837</v>
+      </c>
+      <c r="G5" s="1">
+        <v>999999850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>999999928</v>
-      </c>
-      <c r="C2">
-        <v>999999886</v>
-      </c>
-      <c r="D2">
-        <v>999999230</v>
-      </c>
-      <c r="E2">
-        <v>999997865</v>
-      </c>
-      <c r="F2">
-        <v>999999837</v>
-      </c>
-      <c r="G2">
-        <v>999999850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7" s="4">
+        <v>31610</v>
+      </c>
+      <c r="C7" s="4">
+        <v>33142</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30057</v>
+      </c>
+      <c r="E7" s="4">
+        <v>28453</v>
+      </c>
+      <c r="F7" s="4">
+        <v>18691</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
-        <v>31610</v>
-      </c>
-      <c r="C4" s="1">
-        <v>33142</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30057</v>
-      </c>
-      <c r="E4" s="1">
-        <v>28453</v>
-      </c>
-      <c r="F4" s="1">
-        <v>18691</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Testdata/partnerdataset.xlsx
+++ b/Documents/Testdata/partnerdataset.xlsx
@@ -159,9 +159,6 @@
     <t>Kross@e-mail.com</t>
   </si>
   <si>
-    <t>R.Toepoel@e-mail.com</t>
-  </si>
-  <si>
     <t>CGy@e-mail.com</t>
   </si>
   <si>
@@ -254,13 +251,16 @@
   </si>
   <si>
     <t>Helvert</t>
+  </si>
+  <si>
+    <t>R.vdHeijden@e-mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +400,14 @@
       <color theme="2" tint="-0.89999084444715716"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -699,7 +707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -742,8 +750,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,8 +762,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -783,6 +793,7 @@
     <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1145,7 +1156,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1184,63 +1195,63 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1506,67 +1517,71 @@
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>